--- a/__mx_FHIR_dev_code_notes.xlsx
+++ b/__mx_FHIR_dev_code_notes.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dDev\Python\__HL7_py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C02CE4F-F9C0-4AB5-AB22-119CD65896EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{891F687C-36D3-44E0-8A0E-A02ECF73BC88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="732" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="fhirclient(4.2) - client-py" sheetId="4" r:id="rId1"/>
-    <sheet name="fhirpy 2.0.14(fhir client)" sheetId="1" r:id="rId2"/>
-    <sheet name="Client-js" sheetId="5" r:id="rId3"/>
-    <sheet name="HL7_py_py &amp; js (overview)" sheetId="3" r:id="rId4"/>
-    <sheet name="Synthea" sheetId="2" r:id="rId5"/>
+    <sheet name="smart-on-fhir Flask demo" sheetId="7" r:id="rId1"/>
+    <sheet name="keycloak (Auth Server)" sheetId="6" r:id="rId2"/>
+    <sheet name="fhirclient(4.2.1) - client-py" sheetId="4" r:id="rId3"/>
+    <sheet name="fhirpy 2.0.14(fhir client)" sheetId="1" r:id="rId4"/>
+    <sheet name="Client-js" sheetId="5" r:id="rId5"/>
+    <sheet name="HL7_py_py &amp; js (overview)" sheetId="3" r:id="rId6"/>
+    <sheet name="Synthea" sheetId="2" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="110">
   <si>
     <t>pip install fhirpy</t>
   </si>
@@ -161,17 +163,735 @@
     <t>Github</t>
   </si>
   <si>
-    <t>https://github.com/smart-on-fhir/client-py</t>
-  </si>
-  <si>
     <t>See the VS code - create, update examples (D:\dDev\Python\__HL7_py\fhir_py)</t>
+  </si>
+  <si>
+    <t>4.2.1</t>
+  </si>
+  <si>
+    <t>https://r4.smarthealthit.org/CapabilityStatement</t>
+  </si>
+  <si>
+    <t>sudo apt install openjdk-21-jre-headless</t>
+  </si>
+  <si>
+    <t>v21.0.4+7-lubuntu22.04</t>
+  </si>
+  <si>
+    <t>(1) Install OpenJDK 21</t>
+  </si>
+  <si>
+    <t>OpenJDK - Keycloak</t>
+  </si>
+  <si>
+    <t>https://www.keycloak.org/getting-started/getting-started-zip</t>
+  </si>
+  <si>
+    <t>https://github.com/keycloak/keycloak/releases/download/26.0.0/keycloak-26.0.0.tar.gz</t>
+  </si>
+  <si>
+    <t>wget -O keycloak.tar.gz https://github.com/keycloak/keycloak/releases/download/26.0.0/keycloak-26.0.0.tar.gz</t>
+  </si>
+  <si>
+    <t>(2) Create a keycloak directory under /opt</t>
+  </si>
+  <si>
+    <t>(3) download Keycloak</t>
+  </si>
+  <si>
+    <t>(4) Unpack under /opt/cloak</t>
+  </si>
+  <si>
+    <t>Securing Keycloak</t>
+  </si>
+  <si>
+    <t>It would be a bad idea security-wise to run Keycloak as a root user.</t>
+  </si>
+  <si>
+    <t>As a good practice, we’ll create a dedicated group and user for Keycloak.</t>
+  </si>
+  <si>
+    <t>Configuring Keycloak as a service</t>
+  </si>
+  <si>
+    <t>[Unit]
+Description=The Keycloak Server
+After=syslog.target network.target
+# Hint: If Keycloak must be started before other services,
+# specify it like this:
+# Before=apache2.service
+[Service]
+User=keycloak
+Group=keycloak
+LimitNOFILE=102642
+PIDFile=/run/keycloak/keycloak.pid
+ExecStart=/opt/keycloak/bin/kc.sh start --optimized
+StandardOutput=null
+[Install]
+WantedBy=multi-user.target</t>
+  </si>
+  <si>
+    <t>Optional Steps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://jeffreybostoen.be/installing-keycloak-on-ubuntu-server-22-04/ </t>
+  </si>
+  <si>
+    <t>Start Keycloak</t>
+  </si>
+  <si>
+    <t>./bin/kc.sh start-dev</t>
+  </si>
+  <si>
+    <t>Installing Keycloak on windows 11</t>
+  </si>
+  <si>
+    <t>(1) Installed OpenJDK 21</t>
+  </si>
+  <si>
+    <t>(2) Download keycloak-26.0.0  &amp; unzip to c:\keycloak\keycloak-26.0.0</t>
+  </si>
+  <si>
+    <t>(4) Create a temp admin/123456   at localhost:8080</t>
+  </si>
+  <si>
+    <r>
+      <t>(5) Login into</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Admin console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:  localhost:8080/admin</t>
+    </r>
+  </si>
+  <si>
+    <t>http://localhost:8080/realms/mxFHIR/account/</t>
+  </si>
+  <si>
+    <t>View applications your account has access to</t>
+  </si>
+  <si>
+    <t>Secure the first application</t>
+  </si>
+  <si>
+    <t>manage your account including 
+modifying your profile, 
+adding two-factor authentication, and 
+including identity provider accounts.</t>
+  </si>
+  <si>
+    <t>Open the Keycloak Admin Console.  (localhost:8080/admin)</t>
+  </si>
+  <si>
+    <t>Click  on Clients</t>
+  </si>
+  <si>
+    <t>Click Create Client</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/smart-on-fhir/client-py </t>
+  </si>
+  <si>
+    <t>Login into Account Console:  localhost:8080/realms/mxFHIR    (as Winter/123456)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Create a Realm: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mxFHIR</t>
+    </r>
+  </si>
+  <si>
+    <t>Select the mxFHIR realm</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click Next
+Confirm that </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Standard flow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is enabled.
+Click Next.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">To confirm the client was created successfully, you can use the SPA testing application on the Keycloak website.
+Open </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://www.keycloak.org/app/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.
+Click Save to use the default configuration:
+Click Sign in to authenticate to this application using the Keycloak server you started earlier.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Installing Keycloak 26.0.0 on ubuntu 22.04 </t>
+  </si>
+  <si>
+    <t>Install Keycloak 26.0.0. on Ubuntu 22.04</t>
+  </si>
+  <si>
+    <t>sudo mkdir /opt/keycloak</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"># Unpack under /opt/keycloak.
+# In this example, the .tar.gz actually contained a "keycloak-26.0.0" folder.
+# The --strip-components makes sure to ignore this first (1) leve
+# </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tar -xzvf keycloak.tar.gz --strip-components=1    (to current dir /opt/keycloak)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dev.to/yaznzamel/keycloak-2205-on-ubuntu-with-postgresql-4h0n </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"># Our Keycloak user becomes the owner of the folder /opt/keycloak and everything in it (recursively).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sudo chown -R keycloak: keycloak</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+# Set permissions.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">sudo chmod o+x /opt/keycloak/bin </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"># Create a group first. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>sudo groupadd keycloak</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF334155"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 
+# Create a dedicated user account. 
+# This user account will be part of the group keycloak. 
+# Its home directory will be set to /opt/keycloak. 
+# There will be no shell for this user. 
+# Its username is keycloak. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>useradd -r -g keycloak -d /opt/keycloak -s /sbin/nologin keycloak</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF334155"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Move the .conf files from the current directory to the /etc</t>
+  </si>
+  <si>
+    <t>cd /etc</t>
+  </si>
+  <si>
+    <t>sudo mkdir keycloak</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">create a service configuration file under </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/etc/systemd/system/keycloak.service</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">sudo vi </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/etc/systemd/system/keycloak.service</t>
+    </r>
+  </si>
+  <si>
+    <t>[Unit]
+Description=Keycloak Authorization Server
+After=network.target
+[Service]
+User=keycloak
+Group=keycloak
+ExecStart=/opt/keycloak/bin/kc.sh start
+ExecStop=/opt/keycloak/bin/kc.sh stop
+Restart=always
+RestartSec=3
+Environment="JAVA_HOME=/usr/lib/jvm/java-21-openjdk-amd64"
+[Install]
+WantedBy=multi-user.target</t>
+  </si>
+  <si>
+    <t>start the keycloak service</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Fill in the form with the following values:
+Client type: OpenID Connect
+Client ID: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mxfhirclient1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">sudo cp /opt/keycloak/conf/keycloak.conf </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Var(--ff-monospace)"/>
+      </rPr>
+      <t>/etc/keycloak/keycloak.conf</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sudo -i -u postgres</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+postgres=# CREATE DATABASE keycloak;
+postgres=# CREATE USER keycloak WITH PASSWORD '123456';
+postgres=# GRANT ALL PRIVILEGES ON DATABASE keycloak TO keycloak;
+Check the db connection
+postgres@mxfhir:~$ psql -h localhost -U keycloak -d keycloak
+Password for user keycloak: 123456
+keycloak=&gt; \q
+postgres@mxfhir:~$ exit
+logout
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Create Postgresql DB for keycloak</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">sudo systemctl daemon-reload </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   # any change you do on the keycloak.service file run this command after it
+systemctl start keycloak.service 
+systemctl status keycloak.service</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">systemctl start keycloak.service </t>
+  </si>
+  <si>
+    <t>systemctl status keycloak.service</t>
+  </si>
+  <si>
+    <t>Edit /etc/keycloak/keycloak.conf</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sudo systemctl daemon-reload</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    # any change you do on the keycloak.service file run this command after it</t>
+    </r>
+  </si>
+  <si>
+    <t>Step 4.) Create Admin User &amp; Password</t>
+  </si>
+  <si>
+    <t>Next step is to create and admin user and password for Keycloak.  Run the following commands:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">export </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEE9900"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>KEYCLOAK_ADMIN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=admin</t>
+    </r>
+  </si>
+  <si>
+    <t>Step 5.) Start KeyCloak Server</t>
+  </si>
+  <si>
+    <r>
+      <t>Now we’re ready to start the KeyCloak server by running the following script from the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/bin </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>directory</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">export </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEE9900"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>KEYCLOAK_ADMIN_PASSWORD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=123456</t>
+    </r>
+  </si>
+  <si>
+    <t>https://cloudinfrastructureservices.co.uk/setup-keycloak-server-on-azure-aws-gcp/</t>
+  </si>
+  <si>
+    <t>export KC_BOOTSTRAP_ADMIN_USERNAME=admin</t>
+  </si>
+  <si>
+    <t>export KC_BOOTSTRAP_ADMIN_PASSWORD=123456</t>
+  </si>
+  <si>
+    <r>
+      <t>sudo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> -E ./kc.sh start   - for PROD </t>
+    </r>
+  </si>
+  <si>
+    <t>Configure boostrap admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sudo ./kc.sh bootstrap-admin user   </t>
+  </si>
+  <si>
+    <t>User: admin/123456</t>
+  </si>
+  <si>
+    <t>Ubuntu 22.04</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sudo ./kc.sh start-dev</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for development 
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Create user with username: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>winter/123456</t>
+    </r>
+  </si>
+  <si>
+    <t>Configure bootstrap admin
+sudo ./kc.sh bootstrap-admin user   
+User: admin/123456</t>
+  </si>
+  <si>
+    <t>cd client-py/demos/flask</t>
+  </si>
+  <si>
+    <t>pip install -r requirements.txt</t>
+  </si>
+  <si>
+    <t># Edit flask_app.py and put your own server's URL as api_base.</t>
+  </si>
+  <si>
+    <t>./flask_app.py</t>
+  </si>
+  <si>
+    <t>Git clone https://github.com/smart-on-fhir/client-py.git</t>
+  </si>
+  <si>
+    <t>python3 -m venv venv</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(3) run  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bin\kc.bat start-dev</t>
+    </r>
+  </si>
+  <si>
+    <t>venv/Scripts/activate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,8 +982,162 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF334155"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF334155"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF212529"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Var(--ff-monospace)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFC00000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Var(--ff-monospace)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="17"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFEE9900"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFDD4A68"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="14"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -273,6 +1147,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5F2F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -299,7 +1185,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -333,6 +1219,72 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -349,6 +1301,99 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>752474</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>82595</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3752849</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>118483</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD1E1304-A852-A72A-8227-903DCC7E0808}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3514724" y="8769395"/>
+          <a:ext cx="3000375" cy="2702888"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>134318</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>744057</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{225986E6-DF18-5147-F14A-4A1192444D3C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9515475" y="666750"/>
+          <a:ext cx="6935168" cy="7935432"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -613,14 +1658,575 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C39806D-845F-40B8-9D06-F594B5CFA777}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="B2:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="52.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" s="12"/>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="12"/>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" s="12"/>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" s="12"/>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="12"/>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" s="12"/>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" s="12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A21FCBED-8E53-4828-8366-BE77127A48F9}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:C113"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="42.5703125" customWidth="1"/>
+    <col min="2" max="2" width="89.42578125" customWidth="1"/>
+    <col min="3" max="3" width="85.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="21">
+      <c r="B7" s="46" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="45">
+      <c r="B12" s="17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="B13" s="17"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="B14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="B16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="B18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="69">
+      <c r="B19" s="26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="B22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="18.75">
+      <c r="B23" s="45" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="25"/>
+      <c r="B26" s="27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="B27" s="28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="B28" s="27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="45">
+      <c r="B29" s="29" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="45">
+      <c r="B30" s="29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="1:2" ht="120">
+      <c r="B32" s="29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="2"/>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="2"/>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="2"/>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="2"/>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="2"/>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="2"/>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="2"/>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="2"/>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="2"/>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="2"/>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="2"/>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="2"/>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" s="2"/>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" s="2"/>
+    </row>
+    <row r="49" spans="1:2" s="3" customFormat="1" ht="15.75">
+      <c r="A49" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="B49" s="24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>25</v>
+      </c>
+      <c r="B52" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="B57" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" s="5" customFormat="1" ht="60">
+      <c r="A59" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" s="5" customFormat="1">
+      <c r="A60" s="21"/>
+      <c r="B60" s="18"/>
+    </row>
+    <row r="61" spans="1:2" s="5" customFormat="1">
+      <c r="A61" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" s="5" customFormat="1">
+      <c r="A62" s="21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" s="5" customFormat="1">
+      <c r="A63" s="21"/>
+      <c r="B63" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" s="5" customFormat="1">
+      <c r="A64" s="21"/>
+      <c r="B64" s="18"/>
+    </row>
+    <row r="65" spans="1:2" s="5" customFormat="1">
+      <c r="A65" s="21"/>
+      <c r="B65" s="18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" s="5" customFormat="1">
+      <c r="A66" s="21"/>
+      <c r="B66" s="18" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" s="5" customFormat="1">
+      <c r="A67" s="21"/>
+      <c r="B67" s="18"/>
+    </row>
+    <row r="69" spans="1:2" s="22" customFormat="1">
+      <c r="A69" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B69" s="23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" s="22" customFormat="1">
+      <c r="B70" s="23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="15.75">
+      <c r="A71" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B71" s="19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="15.75">
+      <c r="B72" s="19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="150">
+      <c r="B74" s="20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="90">
+      <c r="B76" s="17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="B79" s="31" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="B80" s="31" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="B81" s="32"/>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="B82" s="33" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B84" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="B85" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" s="5" customFormat="1" ht="270">
+      <c r="B86" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="C86" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" s="5" customFormat="1" ht="60">
+      <c r="A87" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="B87" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="36" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" s="5" customFormat="1" ht="256.5" customHeight="1">
+      <c r="B90" s="18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" s="5" customFormat="1" ht="34.5" customHeight="1">
+      <c r="A91" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B91" s="18"/>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="B92" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="B93" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="B94" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="21">
+      <c r="A97" s="44" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="21.75">
+      <c r="B99" s="37" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="B100" s="38" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="B101" s="39" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="B102" s="40" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="21.75">
+      <c r="B104" s="37" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="B105" s="38" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="B106" s="41" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="B109" s="36" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="B110" s="43" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="B111" s="42" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" ht="33.75">
+      <c r="B113" s="17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A50" r:id="rId1" display="https://www.keycloak.org/getting-started/getting-started-zip" xr:uid="{5D7F214A-A2A6-4854-B1FD-5FEB6666EBD1}"/>
+    <hyperlink ref="B56" r:id="rId2" xr:uid="{F5300D26-F45B-465B-8836-F54DDC499694}"/>
+    <hyperlink ref="B69" r:id="rId3" xr:uid="{B7AAED58-9051-4F29-882F-E020791C4FC4}"/>
+    <hyperlink ref="A61" r:id="rId4" display="https://www.keycloak.org/getting-started/getting-started-zip" xr:uid="{4A0E42AD-6B15-4944-9B64-DBCE2EDC4A64}"/>
+    <hyperlink ref="B61" r:id="rId5" display="https://www.keycloak.org/getting-started/getting-started-zip" xr:uid="{7088E7AB-FC8E-4432-9DBF-774923317764}"/>
+    <hyperlink ref="A2" r:id="rId6" display="https://www.keycloak.org/getting-started/getting-started-zip" xr:uid="{F0C6724E-9F7C-4D21-8B0F-6A405506213F}"/>
+    <hyperlink ref="B2" r:id="rId7" xr:uid="{2D2608C2-401D-4EDF-8FB7-437E3BE4993E}"/>
+    <hyperlink ref="B23" r:id="rId8" xr:uid="{4F9CE8AD-6E3F-4EA0-9430-37999442DFEF}"/>
+    <hyperlink ref="B50" r:id="rId9" xr:uid="{3E698A71-29BF-41D9-8F87-32876B89FF83}"/>
+    <hyperlink ref="B70" r:id="rId10" xr:uid="{49991F5F-061C-4A67-8CEE-FA98016FD5FF}"/>
+    <hyperlink ref="A98" r:id="rId11" xr:uid="{DF77ABD8-5695-42BC-A8D0-CEE58CFF3B00}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
+  <drawing r:id="rId13"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC4E52F8-7D97-4E29-B923-E8128E89568D}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -629,7 +2235,7 @@
     <col min="2" max="2" width="72" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="5" customFormat="1" ht="30">
+    <row r="1" spans="1:3" s="5" customFormat="1" ht="30">
       <c r="A1" s="10" t="s">
         <v>15</v>
       </c>
@@ -637,45 +2243,57 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="B2" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="B4" s="12" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="14" t="s">
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" s="12"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.75">
-      <c r="A7" t="s">
+      <c r="B6" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75">
+      <c r="A8" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B8" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75">
-      <c r="B8" s="11"/>
+    <row r="9" spans="1:3" ht="15.75">
+      <c r="B9" s="11"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" xr:uid="{A7189FD4-864D-4D9B-9DC6-1421765ED4B3}"/>
     <hyperlink ref="B2" r:id="rId2" xr:uid="{9C99221E-45E9-4B1C-AA2B-02855FA29B61}"/>
+    <hyperlink ref="B6" r:id="rId3" xr:uid="{A3EC921C-17BD-4F7F-959A-73397865907F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -683,7 +2301,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -720,7 +2338,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="B8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -731,7 +2349,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69037A87-9807-4833-91BF-C20BBE67537A}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -745,7 +2363,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E447AB5-BFEC-4A30-8BC3-555C27307B80}">
   <dimension ref="A1:B17"/>
   <sheetViews>
@@ -818,7 +2436,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52EF3F8C-8A79-4454-828E-3AB368061247}">
   <dimension ref="A1:B2"/>
   <sheetViews>

--- a/__mx_FHIR_dev_code_notes.xlsx
+++ b/__mx_FHIR_dev_code_notes.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dDev\Python\__HL7_py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{891F687C-36D3-44E0-8A0E-A02ECF73BC88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E37B28-2DB8-45DC-81E2-6F1D75926E24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="732" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="732" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smart-on-fhir Flask demo" sheetId="7" r:id="rId1"/>
     <sheet name="keycloak (Auth Server)" sheetId="6" r:id="rId2"/>
-    <sheet name="fhirclient(4.2.1) - client-py" sheetId="4" r:id="rId3"/>
-    <sheet name="fhirpy 2.0.14(fhir client)" sheetId="1" r:id="rId4"/>
+    <sheet name="fhirclient(4.2.1)(smartOnFHIR)" sheetId="4" r:id="rId3"/>
+    <sheet name="fhirpy 2.0.14(FHIR client)" sheetId="1" r:id="rId4"/>
     <sheet name="Client-js" sheetId="5" r:id="rId5"/>
     <sheet name="HL7_py_py &amp; js (overview)" sheetId="3" r:id="rId6"/>
     <sheet name="Synthea" sheetId="2" r:id="rId7"/>
@@ -82,72 +82,6 @@
 </t>
   </si>
   <si>
-    <r>
-      <t>This is </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>fhirclient</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, a flexible Python client for </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FHIR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> servers supporting the </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>SMART on FHIR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> protocol.</t>
-    </r>
-  </si>
-  <si>
     <t>Support R4</t>
   </si>
   <si>
@@ -886,12 +820,49 @@
   <si>
     <t>venv/Scripts/activate</t>
   </si>
+  <si>
+    <r>
+      <t>This is </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fhirclient</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, a flexible Python client for</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> FHIR servers supporting the SMART on FHIR protocol.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="36">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -934,27 +905,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF464646"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1131,6 +1081,21 @@
     <font>
       <b/>
       <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1203,20 +1168,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1225,66 +1189,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="6"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1674,56 +1639,56 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:2">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" s="11"/>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="11"/>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="11" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
-      <c r="B3" s="12"/>
-    </row>
-    <row r="4" spans="2:2">
-      <c r="B4" s="12" t="s">
+    <row r="7" spans="2:2">
+      <c r="B7" s="11"/>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" s="11"/>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="11" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
-      <c r="B5" s="12"/>
-    </row>
-    <row r="6" spans="2:2">
-      <c r="B6" s="12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2">
-      <c r="B7" s="12"/>
-    </row>
-    <row r="8" spans="2:2">
-      <c r="B8" s="12" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2">
-      <c r="B9" s="12"/>
-    </row>
-    <row r="10" spans="2:2">
-      <c r="B10" s="12" t="s">
+    <row r="11" spans="2:2">
+      <c r="B11" s="11"/>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" s="11" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="2:2">
-      <c r="B11" s="12"/>
-    </row>
-    <row r="12" spans="2:2">
-      <c r="B12" s="12" t="s">
+    <row r="13" spans="2:2">
+      <c r="B13" s="11"/>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" s="11" t="s">
         <v>104</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2">
-      <c r="B13" s="12"/>
-    </row>
-    <row r="14" spans="2:2">
-      <c r="B14" s="12" t="s">
-        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1751,124 +1716,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="25" t="s">
-        <v>44</v>
+      <c r="A1" s="24" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="B3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="B5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="21">
-      <c r="B7" s="46" t="s">
-        <v>108</v>
+      <c r="B7" s="44" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="B9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="B11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="45">
-      <c r="B12" s="17" t="s">
-        <v>101</v>
+      <c r="B12" s="16" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="B13" s="17"/>
+      <c r="B13" s="16"/>
     </row>
     <row r="14" spans="1:2">
       <c r="B14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="B16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="B18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="69">
-      <c r="B19" s="26" t="s">
-        <v>52</v>
+      <c r="B19" s="25" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="B22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="18.75">
-      <c r="B23" s="45" t="s">
-        <v>49</v>
+      <c r="B23" s="43" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="B24" s="2"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="25" t="s">
-        <v>51</v>
+      <c r="A25" s="24" t="s">
+        <v>50</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="24"/>
+      <c r="B26" s="26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="B27" s="27" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="25"/>
-      <c r="B26" s="27" t="s">
+    <row r="28" spans="1:2">
+      <c r="B28" s="26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="45">
+      <c r="B29" s="28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="45">
+      <c r="B30" s="28" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="B27" s="28" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="B28" s="27" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="45">
-      <c r="B29" s="29" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="45">
-      <c r="B30" s="29" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="B31" s="2"/>
     </row>
     <row r="32" spans="1:2" ht="120">
-      <c r="B32" s="29" t="s">
-        <v>61</v>
+      <c r="B32" s="28" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="2:2">
@@ -1914,288 +1879,288 @@
       <c r="B46" s="2"/>
     </row>
     <row r="49" spans="1:2" s="3" customFormat="1" ht="15.75">
-      <c r="A49" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="B49" s="24" t="s">
+      <c r="A49" s="29" t="s">
         <v>62</v>
+      </c>
+      <c r="B49" s="23" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="15" t="s">
-        <v>27</v>
+      <c r="A51" s="14" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
+        <v>24</v>
+      </c>
+      <c r="B52" t="s">
         <v>25</v>
       </c>
-      <c r="B52" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="15" t="s">
+      <c r="A54" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B54" s="13" t="s">
+      <c r="B56" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="B57" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" s="5" customFormat="1" ht="60">
+      <c r="A59" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B59" s="17" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="B57" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" s="5" customFormat="1" ht="60">
-      <c r="A59" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="B59" s="18" t="s">
-        <v>65</v>
-      </c>
-    </row>
     <row r="60" spans="1:2" s="5" customFormat="1">
-      <c r="A60" s="21"/>
-      <c r="B60" s="18"/>
+      <c r="A60" s="20"/>
+      <c r="B60" s="17"/>
     </row>
     <row r="61" spans="1:2" s="5" customFormat="1">
       <c r="A61" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="62" spans="1:2" s="5" customFormat="1">
-      <c r="A62" s="21" t="s">
+      <c r="A62" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" s="5" customFormat="1">
+      <c r="A63" s="20"/>
+      <c r="B63" s="9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="63" spans="1:2" s="5" customFormat="1">
-      <c r="A63" s="21"/>
-      <c r="B63" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
     <row r="64" spans="1:2" s="5" customFormat="1">
-      <c r="A64" s="21"/>
-      <c r="B64" s="18"/>
+      <c r="A64" s="20"/>
+      <c r="B64" s="17"/>
     </row>
     <row r="65" spans="1:2" s="5" customFormat="1">
-      <c r="A65" s="21"/>
-      <c r="B65" s="18" t="s">
+      <c r="A65" s="20"/>
+      <c r="B65" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" s="5" customFormat="1">
+      <c r="A66" s="20"/>
+      <c r="B66" s="17" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="66" spans="1:2" s="5" customFormat="1">
-      <c r="A66" s="21"/>
-      <c r="B66" s="18" t="s">
-        <v>93</v>
-      </c>
-    </row>
     <row r="67" spans="1:2" s="5" customFormat="1">
-      <c r="A67" s="21"/>
-      <c r="B67" s="18"/>
-    </row>
-    <row r="69" spans="1:2" s="22" customFormat="1">
-      <c r="A69" s="22" t="s">
+      <c r="A67" s="20"/>
+      <c r="B67" s="17"/>
+    </row>
+    <row r="69" spans="1:2" s="21" customFormat="1">
+      <c r="A69" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B69" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="B69" s="23" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" s="22" customFormat="1">
-      <c r="B70" s="23" t="s">
+    </row>
+    <row r="70" spans="1:2" s="21" customFormat="1">
+      <c r="B70" s="22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="15.75">
+      <c r="A71" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B71" s="18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="15.75">
+      <c r="B72" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="135">
+      <c r="B74" s="19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="90">
+      <c r="B76" s="16" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="15.75">
-      <c r="A71" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B71" s="19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="15.75">
-      <c r="B72" s="19" t="s">
+    <row r="78" spans="1:2">
+      <c r="A78" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="B79" s="30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="B80" s="30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="B81" s="31"/>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="B82" s="30" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="14" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" ht="150">
-      <c r="B74" s="20" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="90">
-      <c r="B76" s="17" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="B79" s="31" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="B80" s="31" t="s">
+      <c r="B84" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="B81" s="32"/>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="B82" s="33" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B84" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="B85" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" s="5" customFormat="1" ht="270">
+      <c r="B86" s="32" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" s="5" customFormat="1" ht="270">
-      <c r="B86" s="34" t="s">
+      <c r="C86" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" s="5" customFormat="1" ht="60">
+      <c r="A87" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="C86" s="18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" s="5" customFormat="1" ht="60">
-      <c r="A87" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="B87" s="18" t="s">
-        <v>80</v>
+      <c r="B87" s="17" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="36" t="s">
-        <v>79</v>
+      <c r="A89" s="34" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="90" spans="1:3" s="5" customFormat="1" ht="256.5" customHeight="1">
-      <c r="B90" s="18" t="s">
-        <v>78</v>
+      <c r="B90" s="17" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="91" spans="1:3" s="5" customFormat="1" ht="34.5" customHeight="1">
       <c r="A91" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B91" s="18"/>
+        <v>82</v>
+      </c>
+      <c r="B91" s="17"/>
     </row>
     <row r="92" spans="1:3">
       <c r="B92" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="B93" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="B94" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="21">
-      <c r="A97" s="44" t="s">
-        <v>98</v>
+      <c r="A97" s="42" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="21.75">
-      <c r="B99" s="37" t="s">
+      <c r="B99" s="35" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="B100" s="36" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
-      <c r="B100" s="38" t="s">
+    <row r="101" spans="1:2">
+      <c r="B101" s="37" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
-      <c r="B101" s="39" t="s">
+    <row r="102" spans="1:2">
+      <c r="B102" s="38" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="21.75">
+      <c r="B104" s="35" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
-      <c r="B102" s="40" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" ht="21.75">
-      <c r="B104" s="37" t="s">
+    <row r="105" spans="1:2">
+      <c r="B105" s="36" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
-      <c r="B105" s="38" t="s">
-        <v>89</v>
-      </c>
-    </row>
     <row r="106" spans="1:2">
-      <c r="B106" s="41" t="s">
+      <c r="B106" s="39" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="B109" s="34" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
-      <c r="B109" s="36" t="s">
+    <row r="110" spans="1:2">
+      <c r="B110" s="41" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
-      <c r="B110" s="43" t="s">
+    <row r="111" spans="1:2">
+      <c r="B111" s="40" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
-      <c r="B111" s="42" t="s">
-        <v>97</v>
-      </c>
-    </row>
     <row r="113" spans="2:2" ht="33.75">
-      <c r="B113" s="17" t="s">
-        <v>99</v>
+      <c r="B113" s="16" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2225,8 +2190,8 @@
   </sheetPr>
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2236,51 +2201,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="5" customFormat="1" ht="30">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" s="11"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="13" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="B4" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="B5" s="12"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="14" t="s">
-        <v>21</v>
-      </c>
       <c r="B6" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="31.5">
       <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="11" t="s">
         <v>16</v>
       </c>
+      <c r="B8" s="46" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="9" spans="1:3" ht="15.75">
-      <c r="B9" s="11"/>
+      <c r="B9" s="10"/>
     </row>
     <row r="10" spans="1:3">
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -2300,8 +2265,8 @@
   </sheetPr>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2319,26 +2284,26 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="B4" s="15"/>
+      <c r="B4" s="14"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="16" t="s">
-        <v>21</v>
+      <c r="A5" s="15" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75">
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="45" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="B8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -2409,7 +2374,7 @@
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
     </row>

--- a/__mx_FHIR_dev_code_notes.xlsx
+++ b/__mx_FHIR_dev_code_notes.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dDev\Python\__HL7_py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E37B28-2DB8-45DC-81E2-6F1D75926E24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82AD5DC2-69F7-4001-9A2C-40B066CD05B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="732" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="761" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="smart-on-fhir Flask demo" sheetId="7" r:id="rId1"/>
-    <sheet name="keycloak (Auth Server)" sheetId="6" r:id="rId2"/>
-    <sheet name="fhirclient(4.2.1)(smartOnFHIR)" sheetId="4" r:id="rId3"/>
-    <sheet name="fhirpy 2.0.14(FHIR client)" sheetId="1" r:id="rId4"/>
-    <sheet name="Client-js" sheetId="5" r:id="rId5"/>
-    <sheet name="HL7_py_py &amp; js (overview)" sheetId="3" r:id="rId6"/>
-    <sheet name="Synthea" sheetId="2" r:id="rId7"/>
+    <sheet name="FHIR_Portal(Flask OAuth)" sheetId="8" r:id="rId1"/>
+    <sheet name="smart-on-fhir Flask demo" sheetId="7" r:id="rId2"/>
+    <sheet name="keycloak (Auth Server)" sheetId="6" r:id="rId3"/>
+    <sheet name="fhirclient(4.2.1)(smartOnFHIR)" sheetId="4" r:id="rId4"/>
+    <sheet name="fhirpy 2.0.14(FHIR client)" sheetId="1" r:id="rId5"/>
+    <sheet name="Client-js" sheetId="5" r:id="rId6"/>
+    <sheet name="HL7_py_py &amp; js (overview)" sheetId="3" r:id="rId7"/>
+    <sheet name="Synthea" sheetId="2" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="118">
   <si>
     <t>pip install fhirpy</t>
   </si>
@@ -857,12 +858,78 @@
       <t> FHIR servers supporting the SMART on FHIR protocol.</t>
     </r>
   </si>
+  <si>
+    <t>Hello, email=marvinxu99@gmail.com, id=114599583373096390569!</t>
+  </si>
+  <si>
+    <t>Hello, email=marvinxu99@hotmail.com, id=114270316709130494914!</t>
+  </si>
+  <si>
+    <t>See the word document for instructions on how to set up the server</t>
+  </si>
+  <si>
+    <t>APIs &amp; Services – APIs &amp; Services – FHIR portal – Google Cloud console</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mxfhir-portal </t>
+  </si>
+  <si>
+    <t>Use Google API Console to set up a client app:</t>
+  </si>
+  <si>
+    <t>D:\dDev\Python\__HL7_py\fhir_portal</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Start the server:  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>flask --app app run</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">     or    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Python app.py</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (debug on)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="35">
+  <fonts count="37">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1096,6 +1163,20 @@
     <font>
       <i/>
       <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1150,7 +1231,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -1249,6 +1330,11 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1623,6 +1709,69 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6146F775-4871-4E3C-96A6-E68C35D50D58}">
+  <sheetPr>
+    <tabColor rgb="FF00B0F0"/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="83" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="18.75">
+      <c r="A1" s="48" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="18.75">
+      <c r="B3" s="47" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="18.75">
+      <c r="B5" s="47" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="18.75">
+      <c r="A7" s="48" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" s="49" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B8" r:id="rId1" display="https://console.cloud.google.com/apis/dashboard?project=fhir-portal" xr:uid="{CF350354-BED9-4D3D-AE14-BAB29834D329}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C39806D-845F-40B8-9D06-F594B5CFA777}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -1697,7 +1846,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A21FCBED-8E53-4828-8366-BE77127A48F9}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -2183,14 +2332,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC4E52F8-7D97-4E29-B923-E8128E89568D}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
@@ -2258,7 +2407,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -2314,7 +2463,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69037A87-9807-4833-91BF-C20BBE67537A}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2328,7 +2477,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E447AB5-BFEC-4A30-8BC3-555C27307B80}">
   <dimension ref="A1:B17"/>
   <sheetViews>
@@ -2401,7 +2550,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52EF3F8C-8A79-4454-828E-3AB368061247}">
   <dimension ref="A1:B2"/>
   <sheetViews>

--- a/__mx_FHIR_dev_code_notes.xlsx
+++ b/__mx_FHIR_dev_code_notes.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dDev\Python\__HL7_py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82AD5DC2-69F7-4001-9A2C-40B066CD05B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C07BCCA-783B-4BDE-A2F5-9F12686F4FEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="761" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="FHIR_Portal(Flask OAuth)" sheetId="8" r:id="rId1"/>
-    <sheet name="smart-on-fhir Flask demo" sheetId="7" r:id="rId2"/>
-    <sheet name="keycloak (Auth Server)" sheetId="6" r:id="rId3"/>
-    <sheet name="fhirclient(4.2.1)(smartOnFHIR)" sheetId="4" r:id="rId4"/>
-    <sheet name="fhirpy 2.0.14(FHIR client)" sheetId="1" r:id="rId5"/>
-    <sheet name="Client-js" sheetId="5" r:id="rId6"/>
-    <sheet name="HL7_py_py &amp; js (overview)" sheetId="3" r:id="rId7"/>
-    <sheet name="Synthea" sheetId="2" r:id="rId8"/>
+    <sheet name="fhir.resources" sheetId="9" r:id="rId1"/>
+    <sheet name="fhirpy 2.0.14(FHIR client)" sheetId="1" r:id="rId2"/>
+    <sheet name="FHIR_Portal(Flask OAuth)" sheetId="8" r:id="rId3"/>
+    <sheet name="smart-on-fhir Flask demo" sheetId="7" r:id="rId4"/>
+    <sheet name="keycloak (Auth Server)" sheetId="6" r:id="rId5"/>
+    <sheet name="fhirclient(4.2.1)(smartOnFHIR)" sheetId="4" r:id="rId6"/>
+    <sheet name="Client-js" sheetId="5" r:id="rId7"/>
+    <sheet name="HL7_py_py &amp; js (overview)" sheetId="3" r:id="rId8"/>
+    <sheet name="Synthea" sheetId="2" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="120">
   <si>
     <t>pip install fhirpy</t>
   </si>
@@ -923,6 +924,12 @@
       </rPr>
       <t xml:space="preserve"> (debug on)</t>
     </r>
+  </si>
+  <si>
+    <t>https://github.com/beda-software/fhir-py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/nazrulworld/fhir.resources </t>
   </si>
 </sst>
 </file>
@@ -1709,14 +1716,100 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{981AF1F0-0D31-432B-9325-19A83588E454}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="52.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{74E19C50-1B11-4A8B-923F-C322ECEB4C97}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="27.28515625" customWidth="1"/>
+    <col min="2" max="2" width="76.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="B3" s="14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" s="14"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75">
+      <c r="B7" s="45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{0CD40518-A79D-403F-B7A3-07AB7521E133}"/>
+    <hyperlink ref="B5" r:id="rId2" xr:uid="{C4EF6D15-6659-4D84-9051-C8FFAAA6C62A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6146F775-4871-4E3C-96A6-E68C35D50D58}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1771,7 +1864,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C39806D-845F-40B8-9D06-F594B5CFA777}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -1846,7 +1939,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A21FCBED-8E53-4828-8366-BE77127A48F9}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -2332,7 +2425,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC4E52F8-7D97-4E29-B923-E8128E89568D}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -2407,63 +2500,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
-  <dimension ref="A1:B8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="27.28515625" customWidth="1"/>
-    <col min="2" max="2" width="76.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15.75">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="B3" s="14" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="B4" s="14"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.75">
-      <c r="B7" s="45" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{0CD40518-A79D-403F-B7A3-07AB7521E133}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69037A87-9807-4833-91BF-C20BBE67537A}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2477,7 +2514,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E447AB5-BFEC-4A30-8BC3-555C27307B80}">
   <dimension ref="A1:B17"/>
   <sheetViews>
@@ -2550,7 +2587,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52EF3F8C-8A79-4454-828E-3AB368061247}">
   <dimension ref="A1:B2"/>
   <sheetViews>

--- a/__mx_FHIR_dev_code_notes.xlsx
+++ b/__mx_FHIR_dev_code_notes.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dDev\Python\__HL7_py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C07BCCA-783B-4BDE-A2F5-9F12686F4FEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73ECFC89-2DF2-43F4-A17D-EE71F479A3B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="fhir.resources" sheetId="9" r:id="rId1"/>
-    <sheet name="fhirpy 2.0.14(FHIR client)" sheetId="1" r:id="rId2"/>
-    <sheet name="FHIR_Portal(Flask OAuth)" sheetId="8" r:id="rId3"/>
-    <sheet name="smart-on-fhir Flask demo" sheetId="7" r:id="rId4"/>
-    <sheet name="keycloak (Auth Server)" sheetId="6" r:id="rId5"/>
-    <sheet name="fhirclient(4.2.1)(smartOnFHIR)" sheetId="4" r:id="rId6"/>
-    <sheet name="Client-js" sheetId="5" r:id="rId7"/>
-    <sheet name="HL7_py_py &amp; js (overview)" sheetId="3" r:id="rId8"/>
-    <sheet name="Synthea" sheetId="2" r:id="rId9"/>
+    <sheet name="Cerner Sandbox(fhirpy)" sheetId="10" r:id="rId1"/>
+    <sheet name="Client-js" sheetId="5" r:id="rId2"/>
+    <sheet name="fhir.resources" sheetId="9" r:id="rId3"/>
+    <sheet name="fhirpy 2.0.14(FHIR client)" sheetId="1" r:id="rId4"/>
+    <sheet name="FHIR_Portal(Flask OAuth)" sheetId="8" r:id="rId5"/>
+    <sheet name="smart-on-fhir Flask demo" sheetId="7" r:id="rId6"/>
+    <sheet name="keycloak (Auth Server)" sheetId="6" r:id="rId7"/>
+    <sheet name="fhirclient(4.2.1)(smartOnFHIR)" sheetId="4" r:id="rId8"/>
+    <sheet name="HL7_py_py &amp; js (overview)" sheetId="3" r:id="rId9"/>
+    <sheet name="Synthea" sheetId="2" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="144">
   <si>
     <t>pip install fhirpy</t>
   </si>
@@ -931,12 +932,85 @@
   <si>
     <t xml:space="preserve">https://github.com/nazrulworld/fhir.resources </t>
   </si>
+  <si>
+    <t>https://github.com/smart-on-fhir/client-js</t>
+  </si>
+  <si>
+    <t>https://docs.smarthealthit.org/client-js/</t>
+  </si>
+  <si>
+    <t>SMART on FHIR JavaScript Library</t>
+  </si>
+  <si>
+    <t>Oracle Health Millennium Platform</t>
+  </si>
+  <si>
+    <t>https://docs.oracle.com/en/industries/health/millennium-platform-apis/index.html</t>
+  </si>
+  <si>
+    <t>FHIR R4 APIs for Oracle Health Millennium Platform</t>
+  </si>
+  <si>
+    <t>https://docs.oracle.com/en/industries/health/millennium-platform-apis/mfrap/srv_root_url.html</t>
+  </si>
+  <si>
+    <t>fhirVersion": "4.0.1,  format: json</t>
+  </si>
+  <si>
+    <t>"resourceType": "CapabilityStatement",
+ "url": "https://fhir-open.cerner.com/r4/ec2458f2-1e24-41c8-b71b-0e701af7583d/metadata"</t>
+  </si>
+  <si>
+    <t>"url": "https://fhir-open.cerner.com/r4/ec2458f2-1e24-41c8-b71b-0e701af7583d"</t>
+  </si>
+  <si>
+    <t>JavaScript FHIR client</t>
+  </si>
+  <si>
+    <t>Service Root URL</t>
+  </si>
+  <si>
+    <t>Open Sandbox</t>
+  </si>
+  <si>
+    <t>https://fhir-open.cerner.com/r4/ec2458f2-1e24-41c8-b71b-0e701af7583d/:resource[?:parameters]</t>
+  </si>
+  <si>
+    <t>Secure Sandbox</t>
+  </si>
+  <si>
+    <t>https://fhir-ehr-code.cerner.com/r4/ec2458f2-1e24-41c8-b71b-0e701af7583d/:resource[?:parameters]</t>
+  </si>
+  <si>
+    <t>https://fhir-myrecord.cerner.com/r4/ec2458f2-1e24-41c8-b71b-0e701af7583d/:resource[?:parameters]</t>
+  </si>
+  <si>
+    <t>Patient access</t>
+  </si>
+  <si>
+    <t>Non-Patient</t>
+  </si>
+  <si>
+    <t>$ curl -i -H "Accept: application/json+fhir" "https://fhir-open.cerner.com/r4/ec2458f2-1e24-41c8-b71b-0e701af7583d/MedicationOrder?patient=2744010&amp;status=active"</t>
+  </si>
+  <si>
+    <t>Region-specific Systems</t>
+  </si>
+  <si>
+    <t>Canada: https://fhir.ca.cerner.com/&lt;EHR source id&gt;/</t>
+  </si>
+  <si>
+    <t>Resouce Information</t>
+  </si>
+  <si>
+    <t>https://docs.oracle.com/en/industries/health/millennium-platform-apis/mfrap/resource_info.html</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="37">
+  <fonts count="41">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1188,6 +1262,33 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF1A1816"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1216,7 +1317,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1233,12 +1334,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFDEDAD6"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFDEDAD6"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFDEDAD6"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFDEDAD6"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -1342,6 +1458,25 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1716,10 +1851,223 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EC01C2F-103C-43A0-B426-04FFC1E343E4}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="27.85546875" customWidth="1"/>
+    <col min="2" max="2" width="102.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="50" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="B2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16.5">
+      <c r="A4" s="51" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" thickBot="1">
+      <c r="B5" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="17.25" thickTop="1" thickBot="1">
+      <c r="B6" s="52" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" thickTop="1"/>
+    <row r="8" spans="1:2" ht="30">
+      <c r="B8" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="B9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" s="3" customFormat="1"/>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="56" t="s">
+        <v>132</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="53"/>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="56" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="54" t="s">
+        <v>138</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="54" t="s">
+        <v>137</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="B20" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="17.25">
+      <c r="A22" s="55" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="B23" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1" xr:uid="{7CA766D9-FCC5-4686-853A-56834EFB9AB3}"/>
+    <hyperlink ref="B11" r:id="rId2" xr:uid="{89C1EE21-FE8F-49C2-9E09-36A8E1A48D15}"/>
+    <hyperlink ref="B14" r:id="rId3" xr:uid="{88BD11E2-EAD7-4E9E-BD7A-B81008585CAA}"/>
+    <hyperlink ref="B17" r:id="rId4" xr:uid="{31DDF50E-2169-4614-8CB2-F748CE1C2B15}"/>
+    <hyperlink ref="B18" r:id="rId5" xr:uid="{2C186D8B-063C-4FA2-B0F2-9544ED6064C3}"/>
+    <hyperlink ref="B25" r:id="rId6" xr:uid="{B367A37C-BECA-4851-9CE1-440D387EF8F9}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52EF3F8C-8A79-4454-828E-3AB368061247}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+    <col min="2" max="2" width="96.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69037A87-9807-4833-91BF-C20BBE67537A}">
+  <sheetPr>
+    <tabColor rgb="FF00B0F0"/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="23.85546875" customWidth="1"/>
+    <col min="2" max="2" width="49" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="12"/>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="24" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{B3067298-FC9D-4253-BB73-3E25247FD0C5}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{80D18CA2-DBD0-415F-9A12-327BABE2A1FA}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{981AF1F0-0D31-432B-9325-19A83588E454}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -1741,7 +2089,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -1749,7 +2097,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1801,7 +2149,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6146F775-4871-4E3C-96A6-E68C35D50D58}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
@@ -1864,7 +2212,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C39806D-845F-40B8-9D06-F594B5CFA777}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -1939,7 +2287,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A21FCBED-8E53-4828-8366-BE77127A48F9}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -2425,7 +2773,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC4E52F8-7D97-4E29-B923-E8128E89568D}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -2500,21 +2848,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69037A87-9807-4833-91BF-C20BBE67537A}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E447AB5-BFEC-4A30-8BC3-555C27307B80}">
   <dimension ref="A1:B17"/>
   <sheetViews>
@@ -2585,33 +2919,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52EF3F8C-8A79-4454-828E-3AB368061247}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="23.42578125" customWidth="1"/>
-    <col min="2" max="2" width="96.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/__mx_FHIR_dev_code_notes.xlsx
+++ b/__mx_FHIR_dev_code_notes.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dDev\Python\__HL7_py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73ECFC89-2DF2-43F4-A17D-EE71F479A3B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AEDA1F1-402D-4965-AFC2-AC06B0607718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="898" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Cerner Sandbox(fhirpy)" sheetId="10" r:id="rId1"/>
-    <sheet name="Client-js" sheetId="5" r:id="rId2"/>
-    <sheet name="fhir.resources" sheetId="9" r:id="rId3"/>
-    <sheet name="fhirpy 2.0.14(FHIR client)" sheetId="1" r:id="rId4"/>
-    <sheet name="FHIR_Portal(Flask OAuth)" sheetId="8" r:id="rId5"/>
-    <sheet name="smart-on-fhir Flask demo" sheetId="7" r:id="rId6"/>
-    <sheet name="keycloak (Auth Server)" sheetId="6" r:id="rId7"/>
-    <sheet name="fhirclient(4.2.1)(smartOnFHIR)" sheetId="4" r:id="rId8"/>
-    <sheet name="HL7_py_py &amp; js (overview)" sheetId="3" r:id="rId9"/>
-    <sheet name="Synthea" sheetId="2" r:id="rId10"/>
+    <sheet name="Millennium-Ignite APIs" sheetId="12" r:id="rId1"/>
+    <sheet name="Cerner Smart-on-FHIR Tutorial" sheetId="11" r:id="rId2"/>
+    <sheet name="fhirpy-Cerner Sandbox" sheetId="10" r:id="rId3"/>
+    <sheet name="fhir.resources" sheetId="9" r:id="rId4"/>
+    <sheet name="fhirpy 2.0.14(FHIR client)" sheetId="1" r:id="rId5"/>
+    <sheet name="FHIR_Portal(Flask OAuth)" sheetId="8" r:id="rId6"/>
+    <sheet name="smart-on-fhir Flask demo" sheetId="7" r:id="rId7"/>
+    <sheet name="keycloak (Auth Server)" sheetId="6" r:id="rId8"/>
+    <sheet name="fhirclient(4.2.1)(smartOnFHIR)" sheetId="4" r:id="rId9"/>
+    <sheet name="HL7_py_py &amp; js (overview)" sheetId="3" r:id="rId10"/>
+    <sheet name="Synthea" sheetId="2" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="184">
   <si>
     <t>pip install fhirpy</t>
   </si>
@@ -821,9 +822,6 @@
     </r>
   </si>
   <si>
-    <t>venv/Scripts/activate</t>
-  </si>
-  <si>
     <r>
       <t>This is </t>
     </r>
@@ -936,16 +934,7 @@
     <t>https://github.com/smart-on-fhir/client-js</t>
   </si>
   <si>
-    <t>https://docs.smarthealthit.org/client-js/</t>
-  </si>
-  <si>
-    <t>SMART on FHIR JavaScript Library</t>
-  </si>
-  <si>
     <t>Oracle Health Millennium Platform</t>
-  </si>
-  <si>
-    <t>https://docs.oracle.com/en/industries/health/millennium-platform-apis/index.html</t>
   </si>
   <si>
     <t>FHIR R4 APIs for Oracle Health Millennium Platform</t>
@@ -1004,13 +993,365 @@
   </si>
   <si>
     <t>https://docs.oracle.com/en/industries/health/millennium-platform-apis/mfrap/resource_info.html</t>
+  </si>
+  <si>
+    <t>mxPatientPortal</t>
+  </si>
+  <si>
+    <t>Application ID</t>
+  </si>
+  <si>
+    <t>fefb5e49-fa9a-4c18-9302-fceb590f1cd4</t>
+  </si>
+  <si>
+    <t>Client ID</t>
+  </si>
+  <si>
+    <t>0997a2bc-9c89-4f1c-ab7d-843a8d288aed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://code-console.cerner.com/console/apps </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://docs.oracle.com/en/industries/health/millennium-platform-apis/index.html </t>
+  </si>
+  <si>
+    <t>SMART on FHIR app tutorial (cerner.com)</t>
+  </si>
+  <si>
+    <t>https://engineering.cerner.com/smart-on-fhir-tutorial/</t>
+  </si>
+  <si>
+    <t>https://marvinxu99.github.io/smart-on-fhir-tutorial/example-smart-app/</t>
+  </si>
+  <si>
+    <t>My app launch address:</t>
+  </si>
+  <si>
+    <t>Cerner Code Console</t>
+  </si>
+  <si>
+    <t>Now that we have a snazzy SMART app, it’s time to test it.</t>
+  </si>
+  <si>
+    <t>First, log back into the code console and click on the app you’ve registered (My amazing SMART app).</t>
+  </si>
+  <si>
+    <t>To launch your app through the code console click the “Begin Testing” button.</t>
+  </si>
+  <si>
+    <t>If the app has a user scope, the console will ask if the app you’re launching requires a patient in context. Because our app only has patient scopes, the question will be skipped and you just need to choose a patient to continue.</t>
+  </si>
+  <si>
+    <t>You can choose whether to display a demographics banner for the patient. This need_patient_banner flag will be part of the launch parameters. However, this tutorial app currently does not utilize this flag when displaying the result.</t>
+  </si>
+  <si>
+    <r>
+      <t>Click “Next” to open a “Ready to launch” popup. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Take a note of the testing username and password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, you’ll need this credential when prompted.</t>
+    </r>
+  </si>
+  <si>
+    <t>Finally, click “Launch” and the console will redirect to your application.</t>
+  </si>
+  <si>
+    <t>Run your app against SMART Health IT</t>
+  </si>
+  <si>
+    <t>Go to https://launch.smarthealthit.org</t>
+  </si>
+  <si>
+    <r>
+      <t>In the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>App Launch Options</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> select </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Launch Type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> as ‘Provider EHR Launch’ with ‘Simulate launch within the EHR user interface’ box checked. This is the default.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Under </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>FHIR Version</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, select ‘R2 (DSTU2)’</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>In the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Patient(s)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> section, click the drop down button to open a list of patients in a new pop up window. Select any patient and click ‘OK’. This should populate the patient ID in the field.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>In the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Provider(s)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> section, click the drop down button to open a list of providers. Select any provider to populate the Provider ID in the field.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>For the purpose of this tutorial we will leave the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Advanced</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> options as is.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>In the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Launch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> section, use the following value but replace </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;gh-username&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> with your GitHub username for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>App Launch URL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: https://</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;gh-username&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.github.io/smart-on-fhir-tutorial/example-smart-app/launch-smart-sandbox.html</t>
+    </r>
+  </si>
+  <si>
+    <t>Note: Currently, the SMART App Launcher does not check/validate the client_id field. So, any value for client_id is fine. If/when this changes, or when working with other authorization servers, please update the client_id field in launch-smart-sandbox.html file.</t>
+  </si>
+  <si>
+    <t>Now launch the app by clicking on the green ‘Launch App!’ button to see your app opened in the simulated EHR with the patient data.</t>
+  </si>
+  <si>
+    <t>launch-smart-sandbox.html</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  });</t>
+  </si>
+  <si>
+    <t>&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>https://marvinxu99.github.io/smart-on-fhir-tutorial/example-smart-app/launch-smart-sandbox.html</t>
+  </si>
+  <si>
+    <t>Standalone launch</t>
+  </si>
+  <si>
+    <t>https://marvinxu99.github.io/smart-on-fhir-tutorial/example-smart-app/launch-patient.html?iss=https://fhir-myrecord.cerner.com/dstu2/ec2458f2-1e24-41c8-b71b-0e701af7583d</t>
+  </si>
+  <si>
+    <t>Following the steps to create a standalone patient app - (https://engineering.cerner.com/smart-on-fhir-tutorial/)</t>
+  </si>
+  <si>
+    <t>Millennium</t>
+  </si>
+  <si>
+    <t>https://wiki.cerner.com/display/reference/Cerner+Ignite+APIs+for+Millennium+Reference+Pages</t>
+  </si>
+  <si>
+    <t>Cerner Ignite APIs for Millennium Reference Pages</t>
+  </si>
+  <si>
+    <t>D:\dDev\Python\smart-on-fhir\client-py</t>
+  </si>
+  <si>
+    <t>venv\Scriptsactivate</t>
+  </si>
+  <si>
+    <t>Activate venv</t>
+  </si>
+  <si>
+    <t>timmysmart/Cerner01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="41">
+  <fonts count="54">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1289,6 +1630,90 @@
       <color rgb="FF1A1816"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="23"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCCCCCC"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Var(--font-family-monospace)"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF002060"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1317,7 +1742,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1349,12 +1774,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF404040"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -1477,6 +1924,49 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1851,142 +2341,116 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EC01C2F-103C-43A0-B426-04FFC1E343E4}">
-  <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
-  <dimension ref="A1:B25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD4D9A10-385C-41B2-8FA1-EB095081440E}">
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" customWidth="1"/>
-    <col min="2" max="2" width="102.28515625" customWidth="1"/>
+    <col min="1" max="1" width="36.28515625" customWidth="1"/>
+    <col min="2" max="2" width="92.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="50" t="s">
-        <v>123</v>
+      <c r="A1" s="24" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="B2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="16.5">
-      <c r="A4" s="51" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" thickBot="1">
-      <c r="B5" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="17.25" thickTop="1" thickBot="1">
-      <c r="B6" s="52" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.75" thickTop="1"/>
-    <row r="8" spans="1:2" ht="30">
-      <c r="B8" s="16" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="B9" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" s="3" customFormat="1"/>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="56" t="s">
-        <v>132</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="53"/>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="56" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="54" t="s">
-        <v>137</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="B20" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="17.25">
-      <c r="A22" s="55" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="B23" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>143</v>
+      <c r="B2" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="41" spans="6:6">
+      <c r="F41" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" xr:uid="{7CA766D9-FCC5-4686-853A-56834EFB9AB3}"/>
-    <hyperlink ref="B11" r:id="rId2" xr:uid="{89C1EE21-FE8F-49C2-9E09-36A8E1A48D15}"/>
-    <hyperlink ref="B14" r:id="rId3" xr:uid="{88BD11E2-EAD7-4E9E-BD7A-B81008585CAA}"/>
-    <hyperlink ref="B17" r:id="rId4" xr:uid="{31DDF50E-2169-4614-8CB2-F748CE1C2B15}"/>
-    <hyperlink ref="B18" r:id="rId5" xr:uid="{2C186D8B-063C-4FA2-B0F2-9544ED6064C3}"/>
-    <hyperlink ref="B25" r:id="rId6" xr:uid="{B367A37C-BECA-4851-9CE1-440D387EF8F9}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{CCB67D72-1FB0-405F-A67C-D0381D3E6BBC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E447AB5-BFEC-4A30-8BC3-555C27307B80}">
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="50.140625" customWidth="1"/>
+    <col min="2" max="2" width="62.5703125" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="5" customFormat="1" ht="24" thickBot="1">
+      <c r="A1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="5" customFormat="1" ht="23.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:2" s="3" customFormat="1">
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="19.5">
+      <c r="A7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" s="3" customFormat="1">
+      <c r="A17" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{723CA2D1-E268-4152-B632-14E567B7F65A}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{D57A57D6-B039-49AA-A5C1-D9A421510726}"/>
+    <hyperlink ref="B2" r:id="rId3" xr:uid="{8C97F6F5-93F6-4445-A6A1-A56D598ADD5D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52EF3F8C-8A79-4454-828E-3AB368061247}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -2016,54 +2480,372 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69037A87-9807-4833-91BF-C20BBE67537A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B6B828C-8BA3-45CD-9E2E-3517BC4E7264}">
   <sheetPr>
-    <tabColor rgb="FF00B0F0"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" customWidth="1"/>
-    <col min="2" max="2" width="49" customWidth="1"/>
+    <col min="1" max="1" width="41.140625" customWidth="1"/>
+    <col min="2" max="2" width="80.140625" customWidth="1"/>
+    <col min="3" max="3" width="62.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="12" t="s">
-        <v>20</v>
+    <row r="1" spans="1:3">
+      <c r="A1" s="59" t="s">
+        <v>147</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="12"/>
-      <c r="B2" s="2"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="24" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="B4" s="2" t="s">
-        <v>121</v>
-      </c>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" s="68" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" s="60"/>
+    </row>
+    <row r="9" spans="1:3" ht="30">
+      <c r="B9" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" s="61" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="38.25">
+      <c r="B11" s="63" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="38.25">
+      <c r="B12" s="63" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="25.5">
+      <c r="B13" s="61" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" s="61" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="24" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="B17" s="62" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="25.5">
+      <c r="B18" s="61" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="B19" s="61" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="38.25">
+      <c r="B20" s="61" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="25.5">
+      <c r="B21" s="61" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="B22" s="61" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="38.25">
+      <c r="B23" s="61" t="s">
+        <v>166</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="60">
+      <c r="B24" s="62" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="25.5">
+      <c r="B25" s="61" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" thickBot="1">
+      <c r="B26" s="60"/>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" thickBot="1">
+      <c r="B27" s="65" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="B28" s="66" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>174</v>
+      </c>
+      <c r="B29" s="67" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="B30" s="70" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="B31" s="71" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="B32" s="66" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="66" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="66" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" ht="15.75" thickBot="1"/>
+    <row r="37" spans="2:2" ht="30" thickBot="1">
+      <c r="B37" s="64"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{B3067298-FC9D-4253-BB73-3E25247FD0C5}"/>
-    <hyperlink ref="B4" r:id="rId2" xr:uid="{80D18CA2-DBD0-415F-9A12-327BABE2A1FA}"/>
+    <hyperlink ref="A1" r:id="rId1" display="https://engineering.cerner.com/smart-on-fhir-tutorial/" xr:uid="{DAD98177-2F16-48FB-9387-5E3E9CCA72DD}"/>
+    <hyperlink ref="B1" r:id="rId2" xr:uid="{679606C8-FC18-4F72-A7F5-AC22616E198E}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{1F66E821-2B21-4874-B708-24279EDBEAF3}"/>
+    <hyperlink ref="B17" r:id="rId4" display="https://launch.smarthealthit.org/" xr:uid="{52E938D2-63C6-412D-9328-B5A236968850}"/>
+    <hyperlink ref="B24" r:id="rId5" display="https://launch.smarthealthit.org/" xr:uid="{030C99BF-DD06-421B-B4C8-4A880F90953E}"/>
+    <hyperlink ref="C23" r:id="rId6" xr:uid="{E2BA1BE2-A6DE-4906-B361-4AEE010297C0}"/>
+    <hyperlink ref="B30" r:id="rId7" xr:uid="{799C0557-EFAF-473A-9707-593D2993C79E}"/>
+    <hyperlink ref="B5" r:id="rId8" xr:uid="{D3EE0DFC-CFB3-44A5-A8D3-BBEE3CD20C7C}"/>
+    <hyperlink ref="C9" r:id="rId9" xr:uid="{F7750058-C66E-4265-A458-54DA5533466E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EC01C2F-103C-43A0-B426-04FFC1E343E4}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:B30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="33" customWidth="1"/>
+    <col min="2" max="2" width="102.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="50" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="B2" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16.5">
+      <c r="A4" s="51" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" thickBot="1">
+      <c r="B5" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="17.25" thickTop="1" thickBot="1">
+      <c r="B6" s="52" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" thickTop="1"/>
+    <row r="8" spans="1:2" ht="30">
+      <c r="B8" s="16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="B9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" s="3" customFormat="1"/>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="53"/>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="56" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="54" t="s">
+        <v>134</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="54" t="s">
+        <v>133</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="B20" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="17.25">
+      <c r="A22" s="55" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="B23" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" s="12" customFormat="1">
+      <c r="A27" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" s="12" customFormat="1">
+      <c r="B28" s="12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" s="12" customFormat="1">
+      <c r="A29" s="57" t="s">
+        <v>141</v>
+      </c>
+      <c r="B29" s="58" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" s="12" customFormat="1">
+      <c r="A30" s="57" t="s">
+        <v>143</v>
+      </c>
+      <c r="B30" s="58" t="s">
+        <v>144</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1" xr:uid="{7CA766D9-FCC5-4686-853A-56834EFB9AB3}"/>
+    <hyperlink ref="B11" r:id="rId2" xr:uid="{89C1EE21-FE8F-49C2-9E09-36A8E1A48D15}"/>
+    <hyperlink ref="B14" r:id="rId3" xr:uid="{88BD11E2-EAD7-4E9E-BD7A-B81008585CAA}"/>
+    <hyperlink ref="B17" r:id="rId4" xr:uid="{31DDF50E-2169-4614-8CB2-F748CE1C2B15}"/>
+    <hyperlink ref="B18" r:id="rId5" xr:uid="{2C186D8B-063C-4FA2-B0F2-9544ED6064C3}"/>
+    <hyperlink ref="B25" r:id="rId6" xr:uid="{B367A37C-BECA-4851-9CE1-440D387EF8F9}"/>
+    <hyperlink ref="A27" r:id="rId7" xr:uid="{675E36DF-ED3C-4C6C-9F05-7F81F4250F67}"/>
+    <hyperlink ref="B2" r:id="rId8" xr:uid="{BAF77A35-59E0-46EC-97C9-98E5E821E5A7}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{981AF1F0-0D31-432B-9325-19A83588E454}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2078,7 +2860,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2089,7 +2871,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -2127,7 +2909,7 @@
         <v>20</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75">
@@ -2149,7 +2931,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6146F775-4871-4E3C-96A6-E68C35D50D58}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
@@ -2168,40 +2950,40 @@
   <sheetData>
     <row r="1" spans="1:2" ht="18.75">
       <c r="A1" s="48" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18.75">
       <c r="B3" s="47" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="18.75">
       <c r="B5" s="47" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="18.75">
       <c r="A7" s="48" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B8" s="49" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="B11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -2212,71 +2994,79 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C39806D-845F-40B8-9D06-F594B5CFA777}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="B2:B14"/>
+  <dimension ref="A2:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="52.28515625" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="65.85546875" customWidth="1"/>
+    <col min="3" max="3" width="44.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2">
+    <row r="2" spans="1:3">
       <c r="B2" s="11" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="3" spans="2:2">
+      <c r="C2" s="12" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="B3" s="11"/>
     </row>
-    <row r="4" spans="2:2">
+    <row r="4" spans="1:3">
       <c r="B4" s="11" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
+    <row r="5" spans="1:3">
       <c r="B5" s="11"/>
     </row>
-    <row r="6" spans="2:2">
+    <row r="6" spans="1:3">
       <c r="B6" s="11" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
+    <row r="7" spans="1:3">
       <c r="B7" s="11"/>
     </row>
-    <row r="8" spans="2:2">
-      <c r="B8" s="11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2">
+    <row r="8" spans="1:3">
+      <c r="A8" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="B8" s="69" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="B9" s="11"/>
     </row>
-    <row r="10" spans="2:2">
+    <row r="10" spans="1:3">
       <c r="B10" s="11" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="2:2">
+    <row r="11" spans="1:3">
       <c r="B11" s="11"/>
     </row>
-    <row r="12" spans="2:2">
+    <row r="12" spans="1:3">
       <c r="B12" s="11" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="2:2">
+    <row r="13" spans="1:3">
       <c r="B13" s="11"/>
     </row>
-    <row r="14" spans="2:2">
+    <row r="14" spans="1:3">
       <c r="B14" s="11" t="s">
         <v>104</v>
       </c>
@@ -2287,7 +3077,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A21FCBED-8E53-4828-8366-BE77127A48F9}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -2773,7 +3563,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC4E52F8-7D97-4E29-B923-E8128E89568D}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -2827,7 +3617,7 @@
         <v>16</v>
       </c>
       <c r="B8" s="46" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75">
@@ -2846,77 +3636,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E447AB5-BFEC-4A30-8BC3-555C27307B80}">
-  <dimension ref="A1:B17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="50.140625" customWidth="1"/>
-    <col min="2" max="2" width="62.5703125" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" s="5" customFormat="1" ht="24" thickBot="1">
-      <c r="A1" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="5" customFormat="1" ht="23.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:2" s="3" customFormat="1">
-      <c r="A6" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="19.5">
-      <c r="A7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" s="3" customFormat="1">
-      <c r="A17" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{723CA2D1-E268-4152-B632-14E567B7F65A}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{D57A57D6-B039-49AA-A5C1-D9A421510726}"/>
-    <hyperlink ref="B2" r:id="rId3" xr:uid="{8C97F6F5-93F6-4445-A6A1-A56D598ADD5D}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>